--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
@@ -540,10 +540,10 @@
         <v>0.5974390000000001</v>
       </c>
       <c r="I2">
-        <v>0.9133463074874526</v>
+        <v>0.7994676808118871</v>
       </c>
       <c r="J2">
-        <v>0.9133463074874526</v>
+        <v>0.7994676808118871</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.50111666666666</v>
+        <v>10.70375566666667</v>
       </c>
       <c r="N2">
-        <v>85.50335</v>
+        <v>32.111267</v>
       </c>
       <c r="O2">
-        <v>0.5313771903239843</v>
+        <v>0.3178747217938744</v>
       </c>
       <c r="P2">
-        <v>0.5313771903239843</v>
+        <v>0.3178747217938744</v>
       </c>
       <c r="Q2">
-        <v>5.675892880072222</v>
+        <v>2.131613693912556</v>
       </c>
       <c r="R2">
-        <v>51.08303592065</v>
+        <v>19.184523245213</v>
       </c>
       <c r="S2">
-        <v>0.4853313946654684</v>
+        <v>0.2541305666212726</v>
       </c>
       <c r="T2">
-        <v>0.4853313946654684</v>
+        <v>0.2541305666212726</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.5974390000000001</v>
       </c>
       <c r="I3">
-        <v>0.9133463074874526</v>
+        <v>0.7994676808118871</v>
       </c>
       <c r="J3">
-        <v>0.9133463074874526</v>
+        <v>0.7994676808118871</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>47.796597</v>
       </c>
       <c r="O3">
-        <v>0.2970412436577956</v>
+        <v>0.4731463873433873</v>
       </c>
       <c r="P3">
-        <v>0.2970412436577956</v>
+        <v>0.4731463873433873</v>
       </c>
       <c r="Q3">
         <v>3.172839012787</v>
@@ -632,10 +632,10 @@
         <v>28.555551115083</v>
       </c>
       <c r="S3">
-        <v>0.2713015230663283</v>
+        <v>0.3782652449739407</v>
       </c>
       <c r="T3">
-        <v>0.2713015230663283</v>
+        <v>0.3782652449739407</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.5974390000000001</v>
       </c>
       <c r="I4">
-        <v>0.9133463074874526</v>
+        <v>0.7994676808118871</v>
       </c>
       <c r="J4">
-        <v>0.9133463074874526</v>
+        <v>0.7994676808118871</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.203003666666666</v>
+        <v>7.036919999999999</v>
       </c>
       <c r="N4">
-        <v>27.609011</v>
+        <v>21.11076</v>
       </c>
       <c r="O4">
-        <v>0.1715815660182201</v>
+        <v>0.2089788908627383</v>
       </c>
       <c r="P4">
-        <v>0.1715815660182201</v>
+        <v>0.2089788908627384</v>
       </c>
       <c r="Q4">
-        <v>1.832744435869889</v>
+        <v>1.40137681596</v>
       </c>
       <c r="R4">
-        <v>16.494699922829</v>
+        <v>12.61239134364</v>
       </c>
       <c r="S4">
-        <v>0.1567133897556559</v>
+        <v>0.1670718692166739</v>
       </c>
       <c r="T4">
-        <v>0.1567133897556559</v>
+        <v>0.1670718692166739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.018894</v>
+        <v>0.04995233333333333</v>
       </c>
       <c r="H5">
-        <v>0.056682</v>
+        <v>0.149857</v>
       </c>
       <c r="I5">
-        <v>0.08665369251254737</v>
+        <v>0.2005323191881128</v>
       </c>
       <c r="J5">
-        <v>0.08665369251254737</v>
+        <v>0.2005323191881128</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.50111666666666</v>
+        <v>10.70375566666667</v>
       </c>
       <c r="N5">
-        <v>85.50335</v>
+        <v>32.111267</v>
       </c>
       <c r="O5">
-        <v>0.5313771903239843</v>
+        <v>0.3178747217938744</v>
       </c>
       <c r="P5">
-        <v>0.5313771903239843</v>
+        <v>0.3178747217938744</v>
       </c>
       <c r="Q5">
-        <v>0.5385000983</v>
+        <v>0.5346775709798888</v>
       </c>
       <c r="R5">
-        <v>4.8465008847</v>
+        <v>4.812098138819</v>
       </c>
       <c r="S5">
-        <v>0.0460457956585159</v>
+        <v>0.06374415517260179</v>
       </c>
       <c r="T5">
-        <v>0.0460457956585159</v>
+        <v>0.06374415517260179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.018894</v>
+        <v>0.04995233333333333</v>
       </c>
       <c r="H6">
-        <v>0.056682</v>
+        <v>0.149857</v>
       </c>
       <c r="I6">
-        <v>0.08665369251254737</v>
+        <v>0.2005323191881128</v>
       </c>
       <c r="J6">
-        <v>0.08665369251254737</v>
+        <v>0.2005323191881128</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>47.796597</v>
       </c>
       <c r="O6">
-        <v>0.2970412436577956</v>
+        <v>0.4731463873433873</v>
       </c>
       <c r="P6">
-        <v>0.2970412436577956</v>
+        <v>0.4731463873433873</v>
       </c>
       <c r="Q6">
-        <v>0.301022967906</v>
+        <v>0.7958505151809998</v>
       </c>
       <c r="R6">
-        <v>2.709206711154</v>
+        <v>7.162654636628999</v>
       </c>
       <c r="S6">
-        <v>0.02573972059146728</v>
+        <v>0.09488114236944661</v>
       </c>
       <c r="T6">
-        <v>0.02573972059146728</v>
+        <v>0.09488114236944663</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.018894</v>
+        <v>0.04995233333333333</v>
       </c>
       <c r="H7">
-        <v>0.056682</v>
+        <v>0.149857</v>
       </c>
       <c r="I7">
-        <v>0.08665369251254737</v>
+        <v>0.2005323191881128</v>
       </c>
       <c r="J7">
-        <v>0.08665369251254737</v>
+        <v>0.2005323191881128</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.203003666666666</v>
+        <v>7.036919999999999</v>
       </c>
       <c r="N7">
-        <v>27.609011</v>
+        <v>21.11076</v>
       </c>
       <c r="O7">
-        <v>0.1715815660182201</v>
+        <v>0.2089788908627383</v>
       </c>
       <c r="P7">
-        <v>0.1715815660182201</v>
+        <v>0.2089788908627384</v>
       </c>
       <c r="Q7">
-        <v>0.173881551278</v>
+        <v>0.3515105734799999</v>
       </c>
       <c r="R7">
-        <v>1.564933961502</v>
+        <v>3.16359516132</v>
       </c>
       <c r="S7">
-        <v>0.01486817626256419</v>
+        <v>0.04190702164606444</v>
       </c>
       <c r="T7">
-        <v>0.01486817626256419</v>
+        <v>0.04190702164606445</v>
       </c>
     </row>
   </sheetData>
